--- a/DOM_Banner/output/dept0713/Moulun Luo_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Moulun Luo_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Pathology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Nephrology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China; Department of Oncology, Guizhou Provincial People’s Hospital, Guizhou, China</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213412577</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Role of Keratin17 in Human Tumours</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-02-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Frontiers in Cell and Developmental Biology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcell.2022.818416</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35281081</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcell.2022.818416</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Abdominal Ultrasonography, The First Affiliated Hospital, Harbin Medical University, Harbin 150001, China; National Key Laboratory of Science and Technology on Tunable Laser, Harbin Institute of Technology, Harbin 150080, China; Department of Abdominal Ultrasonography, The First Affiliated Hospital, Harbin Medical University, Harbin 150001, China; National Key Laboratory of Science and Technology on Tunable Laser, Harbin Institute of Technology, Harbin 150080, China; National Key Laboratory of Science and Technology on Tunable Laser, Harbin Institute of Technology, Harbin 150080, China; Department of Pathology, The First Affiliated Hospital, Harbin Medical University, Harbin 150001, China; Department of Abdominal Ultrasonography, The First Affiliated Hospital, Harbin Medical University, Harbin 150001, China</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210785428</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Elemental analysis and identification of papillary thyroid cancer tissues using laser-induced breakdown spectroscopy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Analytical Atomic Spectrometry</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Royal Society of Chemistry</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1039/d1ja00367d</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1039/d1ja00367d</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Obstetrics and Gynecology, Wuhan Hospital of Traditional Chinese and Western Medicine, Wuhan, China; Department of Obstetrics and Gynecology, Wuhan NO.1 Hospital, Wuhan, China; Department of Obstetrics and Gynecology, Union Hospital, Tongji Medical College, Huazhong University of Science and Technology, Wuhan, China; Department of Obstetrics and Gynecology, Wuhan Hospital of Traditional Chinese and Western Medicine, Wuhan, China; Department of Obstetrics and Gynecology, Wuhan NO.1 Hospital, Wuhan, China</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4304693914</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Netrin-1 promotes the vasculogenic capacity of human adipose-derived stem cells</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-10-12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cell and Tissue Banking</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10561-022-10038-0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36222969</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10561-022-10038-0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China; Institute of Crop Research, Sichuan Academy of Agricultural Sciences, Chengdu, China; National Key Laboratory of Crop Genetic Improvement and National Centre of Plant Gene Research, Huazhong Agricultural University, Wuhan, China; Key Laboratory of Bio-Resource and Eco-Environment of Ministry of Education, College of Life Sciences, Sichuan University, Chengdu, China</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296282138</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>High Sclerotinia sclerotiorum resistance in rapeseed plant has been achieved by OsPGIP6</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-09-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frontiers in Plant Science</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpls.2022.970716</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36186033</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fpls.2022.970716</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4205760856</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Association of a 20-lncRNA signature with mutation load of colon adenocarcinoma and immune microenvironment</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Moulun Luo_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Moulun Luo_2022.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -795,47 +795,47 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lin Yc, Qian Li, Ziyu Liu, Rong Liang, Jiazhou Ye, Ziqin He, Xing Gao, Jinyan Zhang, Moulun Luo, Yongqiang Li, Lianying Ge</t>
+          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital</t>
+          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205760856</t>
+          <t>https://openalex.org/W4281290394</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Association of a 20-lncRNA signature with mutation load of colon adenocarcinoma and immune microenvironment</t>
+          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
+          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,47 +882,47 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Neusha Barakati, Rocio Zapata Bustos, Dawn K. Coletta, Paul Langlais, Lindsay N. Kohler, Moulun Luo, Janet L. Funk, Wayne T. Willis, Lawrence J. Mandarino</t>
+          <t>Lin Yc, Qian Li, Ziyu Liu, Rong Liang, Jiazhou Ye, Ziqin He, Xing Gao, Jinyan Zhang, Moulun Luo, Yongqiang Li, Lianying Ge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Center for Disparities in Diabetes, Obesity, and Metabolism, University of Arizona, Health Sciences, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona; Division of Endocrinology, Department of Medicine, The University of Arizona, Tucson, Arizona</t>
+          <t>Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Medical University; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital; Guangxi Cancer Hospital and Guangxi Medical University Affiliated Cancer Hospital</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281290394</t>
+          <t>https://openalex.org/W4205760856</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acetylation of Adenine Nucleotide Translocase, Fuel Selection, and Metabolic Flexibility in Human Skeletal Muscle</t>
+          <t>Association of a 20-lncRNA signature with mutation load of colon adenocarcinoma and immune microenvironment</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2022.05.05.22274505</t>
+          <t>https://doi.org/10.21203/rs.3.rs-1204020/v1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
